--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.3055973333333</v>
+        <v>66.36304333333334</v>
       </c>
       <c r="H2">
-        <v>318.916792</v>
+        <v>199.08913</v>
       </c>
       <c r="I2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="J2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.47090666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N2">
-        <v>52.41272000000001</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O2">
-        <v>0.9803569739482672</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P2">
-        <v>0.9803569739482673</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q2">
-        <v>1857.255169154916</v>
+        <v>190.2251510280533</v>
       </c>
       <c r="R2">
-        <v>16715.29652239424</v>
+        <v>1712.02635925248</v>
       </c>
       <c r="S2">
-        <v>0.2497359599002714</v>
+        <v>0.1678966976307835</v>
       </c>
       <c r="T2">
-        <v>0.2497359599002714</v>
+        <v>0.1678966976307835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.3055973333333</v>
+        <v>66.36304333333334</v>
       </c>
       <c r="H3">
-        <v>318.916792</v>
+        <v>199.08913</v>
       </c>
       <c r="I3">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="J3">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.49377</v>
       </c>
       <c r="O3">
-        <v>0.009235751608129396</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P3">
-        <v>0.009235751608129398</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q3">
-        <v>17.49683826509333</v>
+        <v>10.92269330223333</v>
       </c>
       <c r="R3">
-        <v>157.47154438584</v>
+        <v>98.3042397201</v>
       </c>
       <c r="S3">
-        <v>0.002352713709953557</v>
+        <v>0.00964059760114688</v>
       </c>
       <c r="T3">
-        <v>0.002352713709953558</v>
+        <v>0.00964059760114688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.3055973333333</v>
+        <v>296.1091513333333</v>
       </c>
       <c r="H4">
-        <v>318.916792</v>
+        <v>888.327454</v>
       </c>
       <c r="I4">
-        <v>0.2547398208373941</v>
+        <v>0.7921640597024409</v>
       </c>
       <c r="J4">
-        <v>0.2547398208373941</v>
+        <v>0.7921640597024407</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1854676666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N4">
-        <v>0.556403</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q4">
-        <v>19.71625109101955</v>
+        <v>848.7767468747093</v>
       </c>
       <c r="R4">
-        <v>177.446259819176</v>
+        <v>7638.990721872383</v>
       </c>
       <c r="S4">
-        <v>0.002651147227169106</v>
+        <v>0.7491481124125746</v>
       </c>
       <c r="T4">
-        <v>0.002651147227169105</v>
+        <v>0.7491481124125746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>296.1091513333334</v>
+        <v>296.1091513333333</v>
       </c>
       <c r="H5">
-        <v>888.3274540000001</v>
+        <v>888.327454</v>
       </c>
       <c r="I5">
-        <v>0.7095655736964096</v>
+        <v>0.7921640597024409</v>
       </c>
       <c r="J5">
-        <v>0.7095655736964095</v>
+        <v>0.7921640597024407</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>17.47090666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N5">
-        <v>52.41272000000001</v>
+        <v>0.49377</v>
       </c>
       <c r="O5">
-        <v>0.9803569739482672</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P5">
-        <v>0.9803569739482673</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q5">
-        <v>5173.295346090544</v>
+        <v>48.73660521795333</v>
       </c>
       <c r="R5">
-        <v>46559.65811481489</v>
+        <v>438.62944696158</v>
       </c>
       <c r="S5">
-        <v>0.6956275586468783</v>
+        <v>0.04301594728986617</v>
       </c>
       <c r="T5">
-        <v>0.6956275586468782</v>
+        <v>0.04301594728986617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>296.1091513333334</v>
+        <v>11.32556566666667</v>
       </c>
       <c r="H6">
-        <v>888.3274540000001</v>
+        <v>33.976697</v>
       </c>
       <c r="I6">
-        <v>0.7095655736964096</v>
+        <v>0.03029864506562886</v>
       </c>
       <c r="J6">
-        <v>0.7095655736964095</v>
+        <v>0.03029864506562885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16459</v>
+        <v>2.866432</v>
       </c>
       <c r="N6">
-        <v>0.49377</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O6">
-        <v>0.009235751608129396</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P6">
-        <v>0.009235751608129398</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q6">
-        <v>48.73660521795334</v>
+        <v>32.46396384503466</v>
       </c>
       <c r="R6">
-        <v>438.62944696158</v>
+        <v>292.175674605312</v>
       </c>
       <c r="S6">
-        <v>0.006553371388339873</v>
+        <v>0.02865337360558936</v>
       </c>
       <c r="T6">
-        <v>0.006553371388339873</v>
+        <v>0.02865337360558935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>296.1091513333334</v>
+        <v>11.32556566666667</v>
       </c>
       <c r="H7">
-        <v>888.3274540000001</v>
+        <v>33.976697</v>
       </c>
       <c r="I7">
-        <v>0.7095655736964096</v>
+        <v>0.03029864506562886</v>
       </c>
       <c r="J7">
-        <v>0.7095655736964095</v>
+        <v>0.03029864506562885</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854676666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N7">
-        <v>0.556403</v>
+        <v>0.49377</v>
       </c>
       <c r="O7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q7">
-        <v>54.91867337644023</v>
+        <v>1.864074853076667</v>
       </c>
       <c r="R7">
-        <v>494.2680603879621</v>
+        <v>16.77667367769</v>
       </c>
       <c r="S7">
-        <v>0.007384643661191387</v>
+        <v>0.001645271460039503</v>
       </c>
       <c r="T7">
-        <v>0.007384643661191384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>14.895733</v>
-      </c>
-      <c r="H8">
-        <v>44.687199</v>
-      </c>
-      <c r="I8">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="J8">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.47090666666667</v>
-      </c>
-      <c r="N8">
-        <v>52.41272000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9803569739482672</v>
-      </c>
-      <c r="P8">
-        <v>0.9803569739482673</v>
-      </c>
-      <c r="Q8">
-        <v>260.2419609745867</v>
-      </c>
-      <c r="R8">
-        <v>2342.17764877128</v>
-      </c>
-      <c r="S8">
-        <v>0.03499345540111745</v>
-      </c>
-      <c r="T8">
-        <v>0.03499345540111745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.895733</v>
-      </c>
-      <c r="H9">
-        <v>44.687199</v>
-      </c>
-      <c r="I9">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="J9">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.16459</v>
-      </c>
-      <c r="N9">
-        <v>0.49377</v>
-      </c>
-      <c r="O9">
-        <v>0.009235751608129396</v>
-      </c>
-      <c r="P9">
-        <v>0.009235751608129398</v>
-      </c>
-      <c r="Q9">
-        <v>2.45168869447</v>
-      </c>
-      <c r="R9">
-        <v>22.06519825023</v>
-      </c>
-      <c r="S9">
-        <v>0.0003296665098359666</v>
-      </c>
-      <c r="T9">
-        <v>0.0003296665098359666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>14.895733</v>
-      </c>
-      <c r="H10">
-        <v>44.687199</v>
-      </c>
-      <c r="I10">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="J10">
-        <v>0.03569460546619627</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1854676666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556403</v>
-      </c>
-      <c r="O10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="P10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="Q10">
-        <v>2.762676842799667</v>
-      </c>
-      <c r="R10">
-        <v>24.864091585197</v>
-      </c>
-      <c r="S10">
-        <v>0.0003714835552428486</v>
-      </c>
-      <c r="T10">
-        <v>0.0003714835552428485</v>
+        <v>0.001645271460039503</v>
       </c>
     </row>
   </sheetData>
